--- a/VersionRecords/Version online/配置文件/新增定时器.xlsx
+++ b/VersionRecords/Version online/配置文件/新增定时器.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -21,7 +21,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="42">
   <si>
     <t>任务类型</t>
   </si>
@@ -103,9 +103,6 @@
     <t>com.mogoroom.tasktracker.task.LoanApplyMsgRemindOverTimeTask</t>
   </si>
   <si>
-    <t>.LoanApplyMsgRemindOverTimeTask</t>
-  </si>
-  <si>
     <t>{"taskImpl":"com.mogoroom.tasktracker.task.LoanApplyMsgRemindOverTimeTask"}</t>
   </si>
   <si>
@@ -173,6 +170,34 @@
   </si>
   <si>
     <t>每日19:00执行</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交资方买回数据，从资方拉取买回数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏玉军</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.mogoroom.tasktracker.task.MogoBuyBackTask</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MogoBuyBackTask</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"taskImpl":"com.mogoroom.tasktracker.task.MogoBuyBackTask"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LoanApplyMsgRemindOverTimeTask</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每隔10分钟执行一次</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -337,7 +362,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="强调文字颜色 4" xfId="1" builtinId="41"/>
+    <cellStyle name="着色 4" xfId="1" builtinId="41"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -345,12 +370,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -392,7 +420,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -427,7 +455,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -636,10 +664,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -652,16 +680,16 @@
   <sheetData>
     <row r="1" spans="1:20" s="7" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>1</v>
@@ -670,10 +698,10 @@
         <v>2</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>27</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>3</v>
@@ -682,16 +710,16 @@
         <v>4</v>
       </c>
       <c r="K1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>30</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>31</v>
       </c>
       <c r="O1" s="3" t="s">
         <v>0</v>
@@ -700,10 +728,10 @@
         <v>5</v>
       </c>
       <c r="Q1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="R1" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>33</v>
       </c>
       <c r="S1" s="3" t="s">
         <v>6</v>
@@ -739,16 +767,16 @@
         <v>15</v>
       </c>
       <c r="M2" t="s">
+        <v>40</v>
+      </c>
+      <c r="N2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="O2" t="s">
         <v>17</v>
       </c>
-      <c r="O2" t="s">
-        <v>18</v>
-      </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="27" x14ac:dyDescent="0.15">
@@ -762,7 +790,7 @@
         <v>9</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
         <v>11</v>
@@ -777,19 +805,60 @@
         <v>14</v>
       </c>
       <c r="K3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" t="s">
         <v>20</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="N3" s="8" t="s">
-        <v>22</v>
-      </c>
       <c r="O3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P3" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" t="s">
+        <v>37</v>
+      </c>
+      <c r="M4" t="s">
+        <v>38</v>
+      </c>
+      <c r="N4" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="O4" t="s">
+        <v>17</v>
+      </c>
+      <c r="P4" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/VersionRecords/Version online/配置文件/新增定时器.xlsx
+++ b/VersionRecords/Version online/配置文件/新增定时器.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211" concurrentCalc="0"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -179,8 +179,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -341,6 +341,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -350,14 +418,14 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -424,7 +492,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -459,7 +526,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -635,22 +701,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <selection activeCell="D11" sqref="D10:D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
+    <col min="4" max="4" width="14.25" customWidth="1"/>
     <col min="6" max="6" width="29.375" customWidth="1"/>
     <col min="14" max="14" width="56.375" customWidth="1"/>
     <col min="15" max="15" width="16" customWidth="1"/>
     <col min="16" max="16" width="20.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="7" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:20" s="7" customFormat="1" ht="67.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
@@ -710,7 +777,7 @@
       </c>
       <c r="T1" s="6"/>
     </row>
-    <row r="2" spans="1:20" ht="27" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:20" ht="27">
       <c r="C2" t="s">
         <v>7</v>
       </c>
@@ -751,7 +818,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="27" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:20" ht="27">
       <c r="C3" t="s">
         <v>7</v>
       </c>
@@ -801,12 +868,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -814,12 +881,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/VersionRecords/Version online/配置文件/新增定时器.xlsx
+++ b/VersionRecords/Version online/配置文件/新增定时器.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" concurrentCalc="0"/>
+  <calcPr calcId="122211" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -21,7 +21,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="42">
   <si>
     <t>任务类型</t>
   </si>
@@ -103,9 +103,6 @@
     <t>com.mogoroom.tasktracker.task.LoanApplyMsgRemindOverTimeTask</t>
   </si>
   <si>
-    <t>.LoanApplyMsgRemindOverTimeTask</t>
-  </si>
-  <si>
     <t>{"taskImpl":"com.mogoroom.tasktracker.task.LoanApplyMsgRemindOverTimeTask"}</t>
   </si>
   <si>
@@ -173,14 +170,42 @@
   </si>
   <si>
     <t>每日19:00执行</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交资方买回数据，从资方拉取买回数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏玉军</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.mogoroom.tasktracker.task.MogoBuyBackTask</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MogoBuyBackTask</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"taskImpl":"com.mogoroom.tasktracker.task.MogoBuyBackTask"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LoanApplyMsgRemindOverTimeTask</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每隔10分钟执行一次</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -337,81 +362,16 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="强调文字颜色 4" xfId="1" builtinId="41"/>
+    <cellStyle name="着色 4" xfId="1" builtinId="41"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -425,7 +385,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -460,7 +420,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -492,9 +452,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -526,6 +487,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -701,34 +663,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D10:D11"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="4" max="4" width="14.25" customWidth="1"/>
     <col min="6" max="6" width="29.375" customWidth="1"/>
     <col min="14" max="14" width="56.375" customWidth="1"/>
     <col min="15" max="15" width="16" customWidth="1"/>
     <col min="16" max="16" width="20.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="7" customFormat="1" ht="67.5" customHeight="1">
+    <row r="1" spans="1:20" s="7" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>1</v>
@@ -737,10 +698,10 @@
         <v>2</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>27</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>3</v>
@@ -749,16 +710,16 @@
         <v>4</v>
       </c>
       <c r="K1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>30</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>31</v>
       </c>
       <c r="O1" s="3" t="s">
         <v>0</v>
@@ -767,17 +728,17 @@
         <v>5</v>
       </c>
       <c r="Q1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="R1" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>33</v>
       </c>
       <c r="S1" s="3" t="s">
         <v>6</v>
       </c>
       <c r="T1" s="6"/>
     </row>
-    <row r="2" spans="1:20" ht="27">
+    <row r="2" spans="1:20" ht="27" x14ac:dyDescent="0.15">
       <c r="C2" t="s">
         <v>7</v>
       </c>
@@ -806,19 +767,19 @@
         <v>15</v>
       </c>
       <c r="M2" t="s">
+        <v>40</v>
+      </c>
+      <c r="N2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="O2" t="s">
         <v>17</v>
       </c>
-      <c r="O2" t="s">
-        <v>18</v>
-      </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="27">
+    <row r="3" spans="1:20" ht="27" x14ac:dyDescent="0.15">
       <c r="C3" t="s">
         <v>7</v>
       </c>
@@ -829,7 +790,7 @@
         <v>9</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
         <v>11</v>
@@ -844,19 +805,60 @@
         <v>14</v>
       </c>
       <c r="K3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" t="s">
         <v>20</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="N3" s="8" t="s">
-        <v>22</v>
-      </c>
       <c r="O3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P3" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" t="s">
+        <v>37</v>
+      </c>
+      <c r="M4" t="s">
+        <v>38</v>
+      </c>
+      <c r="N4" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="O4" t="s">
+        <v>17</v>
+      </c>
+      <c r="P4" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -868,12 +870,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -881,12 +883,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
